--- a/Manuals/V20 MODBUS RS485 .xlsx
+++ b/Manuals/V20 MODBUS RS485 .xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tstechnologies-my.sharepoint.com/personal/gary_twinn_net/Documents/GTFiles/PhD/Python Projects/UCL-tombola/Manuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF6A5BD1-6760-42F8-A5E9-E4E57CD0A531}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860DB298-B45A-4809-83B6-B27DCC2A5983}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="510" windowWidth="26880" windowHeight="16910" xr2:uid="{C2114098-FEB7-4AC9-8A53-85B8F6D09A7F}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="22500" windowHeight="14170" xr2:uid="{C2114098-FEB7-4AC9-8A53-85B8F6D09A7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V20" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="255">
   <si>
     <t>Description</t>
   </si>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>DS47 data 120</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Query</t>
   </si>
 </sst>
 </file>
@@ -829,12 +835,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -864,9 +876,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,12 +888,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,27 +1209,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B285474-0D1C-4231-8E00-803C94ED280B}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="13.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="1"/>
     <col min="10" max="10" width="14.08984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="19.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1306,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1335,8 +1351,12 @@
       <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1365,8 +1385,12 @@
       <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1395,8 +1419,12 @@
       <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1456,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1487,7 +1515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1517,7 +1545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1547,7 +1575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1577,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1607,7 +1635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1625,7 +1653,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1657,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1689,7 +1717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1719,7 +1747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1750,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1781,7 +1809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1811,7 +1839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1841,7 +1869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1871,7 +1899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1901,7 +1929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1931,375 +1959,423 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>40024</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="3">
-        <v>100</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="5">
+        <v>100</v>
+      </c>
+      <c r="G25" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>40025</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
         <f>-16250 - 16250</f>
         <v>-32500</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>40026</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="5">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>40027</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="3">
-        <v>100</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="6">
         <f>-325 - 325</f>
         <v>-650</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>40028</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="3">
-        <v>100</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="5">
+        <v>100</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>40029</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>40030</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>40031</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="5">
+        <v>100</v>
+      </c>
+      <c r="G32" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>40032</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="5">
+        <v>100</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="H33" s="6"/>
+      <c r="I33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>40033</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>40034</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>40035</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2331,7 +2407,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2363,7 +2439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2395,7 +2471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2427,7 +2503,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2458,7 +2534,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2489,7 +2565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2520,7 +2596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2551,7 +2627,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2582,7 +2658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2613,7 +2689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2644,7 +2720,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5715,16 +5791,106 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="G135:H135"/>
@@ -5737,106 +5903,16 @@
     <mergeCell ref="G130:H130"/>
     <mergeCell ref="G131:H131"/>
     <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manuals/V20 MODBUS RS485 .xlsx
+++ b/Manuals/V20 MODBUS RS485 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tstechnologies-my.sharepoint.com/personal/gary_twinn_net/Documents/GTFiles/PhD/Python Projects/UCL-tombola/Manuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860DB298-B45A-4809-83B6-B27DCC2A5983}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5FC42D-BAC3-45DF-8CC8-535D53F7EE8B}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="22500" windowHeight="14170" xr2:uid="{C2114098-FEB7-4AC9-8A53-85B8F6D09A7F}"/>
+    <workbookView xWindow="5430" yWindow="0" windowWidth="22500" windowHeight="12680" xr2:uid="{C2114098-FEB7-4AC9-8A53-85B8F6D09A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="V20" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="256">
   <si>
     <t>Description</t>
   </si>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>jog1</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,16 +894,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B285474-0D1C-4231-8E00-803C94ED280B}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1245,7 @@
     <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1281,10 +1294,10 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1311,10 +1324,10 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1322,139 +1335,155 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>40003</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="M4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>40004</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>40005</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>40006</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1473,10 +1502,10 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1503,11 +1532,11 @@
       <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1534,10 +1563,10 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1564,10 +1593,10 @@
       <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1594,10 +1623,10 @@
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1605,7 +1634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1624,10 +1653,10 @@
       <c r="F13" s="3">
         <v>100</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1635,25 +1664,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>40013</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1685,7 +1714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1717,7 +1746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1736,10 +1765,10 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +1776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1766,11 +1795,11 @@
       <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1797,11 +1826,11 @@
       <c r="F19" s="3">
         <v>100</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1809,7 +1838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1828,10 +1857,10 @@
       <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1839,7 +1868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1858,10 +1887,10 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="3" t="s">
         <v>64</v>
       </c>
@@ -1869,7 +1898,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1888,10 +1917,10 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="3" t="s">
         <v>66</v>
       </c>
@@ -1899,7 +1928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1918,10 +1947,10 @@
       <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="3" t="s">
         <v>69</v>
       </c>
@@ -1929,7 +1958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1948,434 +1977,509 @@
       <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="O24" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>40024</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="5">
-        <v>100</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="G25" s="7">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5" t="s">
+      <c r="H25" s="7"/>
+      <c r="I25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>40025</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
         <f>-16250 - 16250</f>
         <v>-32500</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>40026</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="5">
-        <v>100</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="4">
+        <v>100</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>40027</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="5">
-        <v>100</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7">
         <f>-325 - 325</f>
         <v>-650</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>40028</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="5">
-        <v>100</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>40029</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>40030</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="5" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="N31" s="1">
+        <v>326</v>
+      </c>
+      <c r="O31" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>40031</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="5">
-        <v>100</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="4">
+        <v>100</v>
+      </c>
+      <c r="G32" s="7">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>40032</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="5">
-        <v>100</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="4">
+        <v>100</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="N33" s="1">
+        <v>37</v>
+      </c>
+      <c r="O33" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>40033</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5" t="s">
+      <c r="H34" s="7"/>
+      <c r="I34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>40034</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>40035</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2406,40 +2510,56 @@
       <c r="J37" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="8">
         <v>40037</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2470,8 +2590,14 @@
       <c r="J39" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2502,8 +2628,14 @@
       <c r="J40" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2522,11 +2654,11 @@
       <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
         <f>-300 - 300</f>
         <v>-600</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="3" t="s">
         <v>127</v>
       </c>
@@ -2534,7 +2666,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2553,11 +2685,11 @@
       <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
         <f>-300 - 300</f>
         <v>-600</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="3" t="s">
         <v>129</v>
       </c>
@@ -2565,7 +2697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2584,11 +2716,11 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="3" t="s">
         <v>131</v>
       </c>
@@ -2596,7 +2728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2615,11 +2747,11 @@
       <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="3" t="s">
         <v>133</v>
       </c>
@@ -2627,7 +2759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2646,11 +2778,11 @@
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="3" t="s">
         <v>135</v>
       </c>
@@ -2658,7 +2790,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2677,11 +2809,11 @@
       <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="3" t="s">
         <v>137</v>
       </c>
@@ -2689,7 +2821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2708,11 +2840,11 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="3" t="s">
         <v>139</v>
       </c>
@@ -2720,7 +2852,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2899,10 +3031,10 @@
       <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="3" t="s">
         <v>152</v>
       </c>
@@ -2929,10 +3061,10 @@
       <c r="F54" s="3">
         <v>1</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="3" t="s">
         <v>154</v>
       </c>
@@ -2959,10 +3091,10 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="3" t="s">
         <v>156</v>
       </c>
@@ -2989,10 +3121,10 @@
       <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="3" t="s">
         <v>158</v>
       </c>
@@ -3051,10 +3183,10 @@
       <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="3" t="s">
         <v>164</v>
       </c>
@@ -3081,10 +3213,10 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="3" t="s">
         <v>167</v>
       </c>
@@ -3111,10 +3243,10 @@
       <c r="F60" s="3">
         <v>1</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="3" t="s">
         <v>169</v>
       </c>
@@ -3141,8 +3273,8 @@
       <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="3" t="s">
         <v>171</v>
       </c>
@@ -3169,8 +3301,8 @@
       <c r="F62" s="3">
         <v>1</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="3" t="s">
         <v>172</v>
       </c>
@@ -3197,8 +3329,8 @@
       <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="3" t="s">
         <v>171</v>
       </c>
@@ -3225,8 +3357,8 @@
       <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="3" t="s">
         <v>172</v>
       </c>
@@ -3381,11 +3513,11 @@
       <c r="F69" s="3">
         <v>100</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="3" t="s">
         <v>131</v>
       </c>
@@ -3604,11 +3736,11 @@
       <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="6">
         <f>-300 - 300</f>
         <v>-600</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="3" t="s">
         <v>127</v>
       </c>
@@ -3635,11 +3767,11 @@
       <c r="F77" s="3">
         <v>100</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="6">
         <f>-300 - 300</f>
         <v>-600</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="3" t="s">
         <v>129</v>
       </c>
@@ -3666,10 +3798,10 @@
       <c r="F78" s="3">
         <v>1</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="3" t="s">
         <v>169</v>
       </c>
@@ -3696,10 +3828,10 @@
       <c r="F79" s="3">
         <v>100</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="3" t="s">
         <v>167</v>
       </c>
@@ -3726,10 +3858,10 @@
       <c r="F80" s="3">
         <v>100</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3756,10 +3888,10 @@
       <c r="F81" s="3">
         <v>10</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H81" s="4"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="3" t="s">
         <v>35</v>
       </c>
@@ -3786,10 +3918,10 @@
       <c r="F82" s="3">
         <v>100</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="4"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="3" t="s">
         <v>39</v>
       </c>
@@ -3816,10 +3948,10 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="3" t="s">
         <v>41</v>
       </c>
@@ -3846,10 +3978,10 @@
       <c r="F84" s="3">
         <v>100</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="3" t="s">
         <v>54</v>
       </c>
@@ -3876,11 +4008,11 @@
       <c r="F85" s="3">
         <v>100</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H85" s="4"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="3" t="s">
         <v>186</v>
       </c>
@@ -3907,11 +4039,11 @@
       <c r="F86" s="3">
         <v>100</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="3" t="s">
         <v>188</v>
       </c>
@@ -3938,11 +4070,11 @@
       <c r="F87" s="3">
         <v>100</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="3" t="s">
         <v>190</v>
       </c>
@@ -3969,11 +4101,11 @@
       <c r="F88" s="3">
         <v>100</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="3" t="s">
         <v>192</v>
       </c>
@@ -4000,11 +4132,11 @@
       <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="3" t="s">
         <v>194</v>
       </c>
@@ -4031,11 +4163,11 @@
       <c r="F90" s="3">
         <v>100</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="3" t="s">
         <v>196</v>
       </c>
@@ -4062,11 +4194,11 @@
       <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="3" t="s">
         <v>198</v>
       </c>
@@ -4093,11 +4225,11 @@
       <c r="F92" s="3">
         <v>100</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="3" t="s">
         <v>200</v>
       </c>
@@ -4124,11 +4256,11 @@
       <c r="F93" s="3">
         <v>100</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="3" t="s">
         <v>202</v>
       </c>
@@ -4155,11 +4287,11 @@
       <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="3" t="s">
         <v>204</v>
       </c>
@@ -4186,11 +4318,11 @@
       <c r="F95" s="3">
         <v>100</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="3" t="s">
         <v>98</v>
       </c>
@@ -4217,11 +4349,11 @@
       <c r="F96" s="3">
         <v>1</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="6">
         <f>-16250 - 16250</f>
         <v>-32500</v>
       </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="6"/>
       <c r="I96" s="3" t="s">
         <v>78</v>
       </c>
@@ -4248,11 +4380,11 @@
       <c r="F97" s="3">
         <v>100</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="6">
         <f>-327.68 - 327.67</f>
         <v>-655.35</v>
       </c>
-      <c r="H97" s="4"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="3" t="s">
         <v>75</v>
       </c>
@@ -4279,10 +4411,10 @@
       <c r="F98" s="3">
         <v>1</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H98" s="4"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="3" t="s">
         <v>102</v>
       </c>
@@ -4309,10 +4441,10 @@
       <c r="F99" s="3">
         <v>1</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="3" t="s">
         <v>96</v>
       </c>
@@ -4339,10 +4471,10 @@
       <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="3" t="s">
         <v>82</v>
       </c>
@@ -4369,11 +4501,11 @@
       <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="6">
         <f>-325 - 325</f>
         <v>-650</v>
       </c>
-      <c r="H101" s="4"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="3" t="s">
         <v>85</v>
       </c>
@@ -4400,10 +4532,10 @@
       <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="4"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="3" t="s">
         <v>89</v>
       </c>
@@ -4430,10 +4562,10 @@
       <c r="F103" s="3">
         <v>1</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H103" s="4"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="3" t="s">
         <v>93</v>
       </c>
@@ -4492,10 +4624,10 @@
       <c r="F105" s="3">
         <v>100</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H105" s="4"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="3" t="s">
         <v>210</v>
       </c>
@@ -4522,10 +4654,10 @@
       <c r="F106" s="3">
         <v>10</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H106" s="4"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="3" t="s">
         <v>213</v>
       </c>
@@ -4552,10 +4684,10 @@
       <c r="F107" s="3">
         <v>100</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H107" s="4"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="3" t="s">
         <v>216</v>
       </c>
@@ -4582,10 +4714,10 @@
       <c r="F108" s="3">
         <v>100</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="3" t="s">
         <v>218</v>
       </c>
@@ -4612,10 +4744,10 @@
       <c r="F109" s="3">
         <v>100</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H109" s="4"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="3" t="s">
         <v>221</v>
       </c>
@@ -4642,10 +4774,10 @@
       <c r="F110" s="3">
         <v>100</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H110" s="4"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="3" t="s">
         <v>222</v>
       </c>
@@ -4672,10 +4804,10 @@
       <c r="F111" s="3">
         <v>100</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H111" s="4"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="3" t="s">
         <v>223</v>
       </c>
@@ -4702,10 +4834,10 @@
       <c r="F112" s="3">
         <v>100</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H112" s="4"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="3" t="s">
         <v>225</v>
       </c>
@@ -4732,10 +4864,10 @@
       <c r="F113" s="3">
         <v>100</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H113" s="4"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="3" t="s">
         <v>226</v>
       </c>
@@ -4762,10 +4894,10 @@
       <c r="F114" s="3">
         <v>100</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="3" t="s">
         <v>227</v>
       </c>
@@ -4792,10 +4924,10 @@
       <c r="F115" s="3">
         <v>1</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H115" s="4"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="3" t="s">
         <v>152</v>
       </c>
@@ -4822,10 +4954,10 @@
       <c r="F116" s="3">
         <v>1</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="4"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="3" t="s">
         <v>154</v>
       </c>
@@ -4852,10 +4984,10 @@
       <c r="F117" s="3">
         <v>1</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="4"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="3" t="s">
         <v>156</v>
       </c>
@@ -4882,10 +5014,10 @@
       <c r="F118" s="3">
         <v>1</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H118" s="4"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="3" t="s">
         <v>158</v>
       </c>
@@ -4912,10 +5044,10 @@
       <c r="F119" s="3">
         <v>1</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H119" s="4"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="3" t="s">
         <v>230</v>
       </c>
@@ -4942,10 +5074,10 @@
       <c r="F120" s="3">
         <v>1</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H120" s="4"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="3" t="s">
         <v>232</v>
       </c>
@@ -4972,10 +5104,10 @@
       <c r="F121" s="3">
         <v>1</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H121" s="4"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="3" t="s">
         <v>234</v>
       </c>
@@ -5002,10 +5134,10 @@
       <c r="F122" s="3">
         <v>1</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H122" s="4"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="3" t="s">
         <v>236</v>
       </c>
@@ -5032,10 +5164,10 @@
       <c r="F123" s="3">
         <v>1</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H123" s="4"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="3" t="s">
         <v>237</v>
       </c>
@@ -5062,10 +5194,10 @@
       <c r="F124" s="3">
         <v>1</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H124" s="4"/>
+      <c r="H124" s="6"/>
       <c r="I124" s="3" t="s">
         <v>13</v>
       </c>
@@ -5092,10 +5224,10 @@
       <c r="F125" s="3">
         <v>1</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H125" s="4"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="3" t="s">
         <v>31</v>
       </c>
@@ -5122,11 +5254,11 @@
       <c r="F126" s="3">
         <v>100</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H126" s="4"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="3" t="s">
         <v>29</v>
       </c>
@@ -5153,10 +5285,10 @@
       <c r="F127" s="3">
         <v>100</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H127" s="4"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="3" t="s">
         <v>72</v>
       </c>
@@ -5183,10 +5315,10 @@
       <c r="F128" s="3">
         <v>100</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H128" s="4"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="3" t="s">
         <v>69</v>
       </c>
@@ -5213,10 +5345,10 @@
       <c r="F129" s="3">
         <v>1000</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H129" s="4"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="3" t="s">
         <v>61</v>
       </c>
@@ -5243,10 +5375,10 @@
       <c r="F130" s="3">
         <v>1</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H130" s="4"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="3" t="s">
         <v>64</v>
       </c>
@@ -5273,10 +5405,10 @@
       <c r="F131" s="3">
         <v>1</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H131" s="4"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="3" t="s">
         <v>66</v>
       </c>
@@ -5303,11 +5435,11 @@
       <c r="F132" s="3">
         <v>100</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H132" s="4"/>
+      <c r="H132" s="6"/>
       <c r="I132" s="3" t="s">
         <v>56</v>
       </c>
@@ -5334,11 +5466,11 @@
       <c r="F133" s="3">
         <v>100</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="6">
         <f>-200 - 200</f>
         <v>-400</v>
       </c>
-      <c r="H133" s="4"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="3" t="s">
         <v>58</v>
       </c>
@@ -5365,11 +5497,11 @@
       <c r="F134" s="3">
         <v>100</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H134" s="4"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="3" t="s">
         <v>135</v>
       </c>
@@ -5396,11 +5528,11 @@
       <c r="F135" s="3">
         <v>100</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H135" s="4"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="3" t="s">
         <v>139</v>
       </c>
@@ -5427,11 +5559,11 @@
       <c r="F136" s="3">
         <v>100</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="6">
         <f>-100 - 100</f>
         <v>-200</v>
       </c>
-      <c r="H136" s="4"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="3" t="s">
         <v>137</v>
       </c>
@@ -5458,10 +5590,10 @@
       <c r="F137" s="3">
         <v>1</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="4"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="3" t="s">
         <v>13</v>
       </c>
@@ -5488,10 +5620,10 @@
       <c r="F138" s="3">
         <v>1</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H138" s="4"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="3" t="s">
         <v>13</v>
       </c>
@@ -5518,10 +5650,10 @@
       <c r="F139" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="4"/>
+      <c r="G139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="6"/>
       <c r="I139" s="3" t="s">
         <v>13</v>
       </c>
@@ -5548,10 +5680,10 @@
       <c r="F140" s="3">
         <v>1</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="4"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="3" t="s">
         <v>13</v>
       </c>
@@ -5578,10 +5710,10 @@
       <c r="F141" s="3">
         <v>1</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="3" t="s">
         <v>13</v>
       </c>
@@ -5608,10 +5740,10 @@
       <c r="F142" s="3">
         <v>1</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G142" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="4"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="3" t="s">
         <v>13</v>
       </c>
@@ -5638,10 +5770,10 @@
       <c r="F143" s="3">
         <v>1</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="4"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="3" t="s">
         <v>13</v>
       </c>
@@ -5668,10 +5800,10 @@
       <c r="F144" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="4"/>
+      <c r="G144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="6"/>
       <c r="I144" s="3" t="s">
         <v>13</v>
       </c>
@@ -5698,10 +5830,10 @@
       <c r="F145" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" s="4"/>
+      <c r="G145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" s="6"/>
       <c r="I145" s="3" t="s">
         <v>13</v>
       </c>
@@ -5728,10 +5860,10 @@
       <c r="F146" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="4"/>
+      <c r="G146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="6"/>
       <c r="I146" s="3" t="s">
         <v>13</v>
       </c>
@@ -5754,8 +5886,8 @@
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
@@ -5778,10 +5910,10 @@
       <c r="F148" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="4"/>
+      <c r="G148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" s="6"/>
       <c r="I148" s="3" t="s">
         <v>13</v>
       </c>
@@ -5791,34 +5923,88 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
@@ -5831,88 +6017,34 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manuals/V20 MODBUS RS485 .xlsx
+++ b/Manuals/V20 MODBUS RS485 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tstechnologies-my.sharepoint.com/personal/gary_twinn_net/Documents/GTFiles/PhD/Python Projects/UCL-tombola/Manuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5FC42D-BAC3-45DF-8CC8-535D53F7EE8B}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{4987A5B0-BF6A-4591-8726-1D025222C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2660FF60-2E39-4D98-BE9C-D4F5CC92A072}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="0" windowWidth="22500" windowHeight="12680" xr2:uid="{C2114098-FEB7-4AC9-8A53-85B8F6D09A7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="256">
   <si>
     <t>Description</t>
   </si>
@@ -838,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,12 +848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,10 +898,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B285474-0D1C-4231-8E00-803C94ED280B}">
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2480,35 +2471,39 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>40036</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -2518,78 +2513,84 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="4">
         <v>40037</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="D38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9">
-        <v>1</v>
-      </c>
-      <c r="P38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>40038</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="D39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
@@ -2598,35 +2599,39 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>40039</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="D40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="4" t="s">
         <v>125</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -5923,16 +5928,106 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="G135:H135"/>
@@ -5945,106 +6040,16 @@
     <mergeCell ref="G130:H130"/>
     <mergeCell ref="G131:H131"/>
     <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
